--- a/Pack1.1/map.xlsx
+++ b/Pack1.1/map.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="4">
   <si>
     <t xml:space="preserve">	2</t>
   </si>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -171,8 +171,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -474,7 +502,7 @@
   <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,10 +706,10 @@
       <c r="M3" s="2">
         <v>0</v>
       </c>
-      <c r="N3" s="4">
-        <v>2</v>
-      </c>
-      <c r="O3" s="6">
+      <c r="N3" s="5">
+        <v>3</v>
+      </c>
+      <c r="O3" s="5">
         <v>3</v>
       </c>
       <c r="P3" s="3">
@@ -690,11 +718,11 @@
       <c r="Q3" s="3">
         <v>4</v>
       </c>
-      <c r="R3" s="6">
-        <v>3</v>
-      </c>
-      <c r="S3" s="4">
-        <v>2</v>
+      <c r="R3" s="5">
+        <v>3</v>
+      </c>
+      <c r="S3" s="5">
+        <v>3</v>
       </c>
       <c r="T3" s="2">
         <v>0</v>
@@ -734,8 +762,8 @@
       <c r="H4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="5">
-        <v>3</v>
+      <c r="I4" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="J4" s="4">
         <v>2</v>
@@ -749,10 +777,10 @@
       <c r="M4" s="2">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>3</v>
-      </c>
-      <c r="O4" s="6">
+      <c r="N4" s="5">
+        <v>3</v>
+      </c>
+      <c r="O4" s="5">
         <v>3</v>
       </c>
       <c r="P4" s="3">
@@ -761,10 +789,10 @@
       <c r="Q4" s="3">
         <v>4</v>
       </c>
-      <c r="R4" s="6">
-        <v>3</v>
-      </c>
-      <c r="S4" s="6">
+      <c r="R4" s="5">
+        <v>3</v>
+      </c>
+      <c r="S4" s="5">
         <v>3</v>
       </c>
       <c r="T4" s="2">
@@ -779,8 +807,8 @@
       <c r="W4" s="4">
         <v>2</v>
       </c>
-      <c r="X4" s="5">
-        <v>3</v>
+      <c r="X4" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="Y4" s="4" t="s">
         <v>0</v>
@@ -802,8 +830,8 @@
       <c r="G5" s="2">
         <v>0</v>
       </c>
-      <c r="H5" s="5">
-        <v>3</v>
+      <c r="H5" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="I5" s="3">
         <v>4</v>
@@ -811,8 +839,8 @@
       <c r="J5" s="3">
         <v>4</v>
       </c>
-      <c r="K5" s="4">
-        <v>2</v>
+      <c r="K5" s="2">
+        <v>0</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -820,23 +848,23 @@
       <c r="M5" s="2">
         <v>0</v>
       </c>
-      <c r="N5" s="4">
-        <v>2</v>
-      </c>
-      <c r="O5" s="6">
-        <v>3</v>
-      </c>
-      <c r="P5" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>3</v>
-      </c>
-      <c r="R5" s="6">
-        <v>3</v>
-      </c>
-      <c r="S5" s="4">
-        <v>2</v>
+      <c r="N5" s="5">
+        <v>3</v>
+      </c>
+      <c r="O5" s="5">
+        <v>3</v>
+      </c>
+      <c r="P5" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>3</v>
+      </c>
+      <c r="R5" s="5">
+        <v>3</v>
+      </c>
+      <c r="S5" s="5">
+        <v>3</v>
       </c>
       <c r="T5" s="2">
         <v>0</v>
@@ -844,8 +872,8 @@
       <c r="U5" s="2">
         <v>0</v>
       </c>
-      <c r="V5" s="4">
-        <v>2</v>
+      <c r="V5" s="2">
+        <v>0</v>
       </c>
       <c r="W5" s="3">
         <v>4</v>
@@ -853,8 +881,8 @@
       <c r="X5" s="3">
         <v>4</v>
       </c>
-      <c r="Y5" s="5">
-        <v>3</v>
+      <c r="Y5" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="Z5" s="2">
         <v>0</v>
@@ -882,8 +910,8 @@
       <c r="J6" s="3">
         <v>4</v>
       </c>
-      <c r="K6" s="5">
-        <v>3</v>
+      <c r="K6" s="2">
+        <v>0</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
@@ -891,22 +919,22 @@
       <c r="M6" s="2">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>3</v>
-      </c>
-      <c r="O6" s="6">
-        <v>3</v>
-      </c>
-      <c r="P6" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>3</v>
-      </c>
-      <c r="R6" s="6">
-        <v>3</v>
-      </c>
-      <c r="S6" s="6">
+      <c r="N6" s="5">
+        <v>3</v>
+      </c>
+      <c r="O6" s="5">
+        <v>3</v>
+      </c>
+      <c r="P6" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>3</v>
+      </c>
+      <c r="R6" s="5">
+        <v>3</v>
+      </c>
+      <c r="S6" s="5">
         <v>3</v>
       </c>
       <c r="T6" s="2">
@@ -915,8 +943,8 @@
       <c r="U6" s="2">
         <v>0</v>
       </c>
-      <c r="V6" s="5">
-        <v>3</v>
+      <c r="V6" s="2">
+        <v>0</v>
       </c>
       <c r="W6" s="3">
         <v>4</v>
@@ -1805,8 +1833,8 @@
       <c r="J19" s="3">
         <v>4</v>
       </c>
-      <c r="K19" s="5">
-        <v>3</v>
+      <c r="K19" s="2">
+        <v>0</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -1814,22 +1842,22 @@
       <c r="M19" s="2">
         <v>0</v>
       </c>
-      <c r="N19" s="6">
-        <v>3</v>
-      </c>
-      <c r="O19" s="6">
-        <v>3</v>
-      </c>
-      <c r="P19" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>3</v>
-      </c>
-      <c r="R19" s="6">
-        <v>3</v>
-      </c>
-      <c r="S19" s="6">
+      <c r="N19" s="5">
+        <v>3</v>
+      </c>
+      <c r="O19" s="5">
+        <v>3</v>
+      </c>
+      <c r="P19" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>3</v>
+      </c>
+      <c r="R19" s="5">
+        <v>3</v>
+      </c>
+      <c r="S19" s="5">
         <v>3</v>
       </c>
       <c r="T19" s="2">
@@ -1838,8 +1866,8 @@
       <c r="U19" s="2">
         <v>0</v>
       </c>
-      <c r="V19" s="5">
-        <v>3</v>
+      <c r="V19" s="2">
+        <v>0</v>
       </c>
       <c r="W19" s="3">
         <v>4</v>
@@ -1867,8 +1895,8 @@
       <c r="G20" s="2">
         <v>0</v>
       </c>
-      <c r="H20" s="5">
-        <v>3</v>
+      <c r="H20" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>4</v>
@@ -1876,8 +1904,8 @@
       <c r="J20" s="3">
         <v>4</v>
       </c>
-      <c r="K20" s="4">
-        <v>2</v>
+      <c r="K20" s="2">
+        <v>0</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
@@ -1885,23 +1913,23 @@
       <c r="M20" s="2">
         <v>0</v>
       </c>
-      <c r="N20" s="4">
-        <v>2</v>
-      </c>
-      <c r="O20" s="6">
-        <v>3</v>
-      </c>
-      <c r="P20" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>3</v>
-      </c>
-      <c r="R20" s="6">
-        <v>3</v>
-      </c>
-      <c r="S20" s="4">
-        <v>2</v>
+      <c r="N20" s="5">
+        <v>3</v>
+      </c>
+      <c r="O20" s="5">
+        <v>3</v>
+      </c>
+      <c r="P20" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>3</v>
+      </c>
+      <c r="R20" s="5">
+        <v>3</v>
+      </c>
+      <c r="S20" s="5">
+        <v>3</v>
       </c>
       <c r="T20" s="2">
         <v>0</v>
@@ -1909,8 +1937,8 @@
       <c r="U20" s="2">
         <v>0</v>
       </c>
-      <c r="V20" s="4">
-        <v>2</v>
+      <c r="V20" s="2">
+        <v>0</v>
       </c>
       <c r="W20" s="3">
         <v>4</v>
@@ -1918,8 +1946,8 @@
       <c r="X20" s="3">
         <v>4</v>
       </c>
-      <c r="Y20" s="5">
-        <v>3</v>
+      <c r="Y20" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="Z20" s="2">
         <v>0</v>
@@ -1941,8 +1969,8 @@
       <c r="H21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I21" s="5">
-        <v>3</v>
+      <c r="I21" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="J21" s="4">
         <v>2</v>
@@ -1956,10 +1984,10 @@
       <c r="M21" s="2">
         <v>0</v>
       </c>
-      <c r="N21" s="6">
-        <v>3</v>
-      </c>
-      <c r="O21" s="6">
+      <c r="N21" s="5">
+        <v>3</v>
+      </c>
+      <c r="O21" s="5">
         <v>3</v>
       </c>
       <c r="P21" s="3">
@@ -1968,10 +1996,10 @@
       <c r="Q21" s="3">
         <v>4</v>
       </c>
-      <c r="R21" s="6">
-        <v>3</v>
-      </c>
-      <c r="S21" s="6">
+      <c r="R21" s="5">
+        <v>3</v>
+      </c>
+      <c r="S21" s="5">
         <v>3</v>
       </c>
       <c r="T21" s="2">
@@ -1986,8 +2014,8 @@
       <c r="W21" s="4">
         <v>2</v>
       </c>
-      <c r="X21" s="5">
-        <v>3</v>
+      <c r="X21" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="Y21" s="4" t="s">
         <v>0</v>
@@ -2027,10 +2055,10 @@
       <c r="M22" s="2">
         <v>0</v>
       </c>
-      <c r="N22" s="4">
-        <v>2</v>
-      </c>
-      <c r="O22" s="6">
+      <c r="N22" s="5">
+        <v>3</v>
+      </c>
+      <c r="O22" s="5">
         <v>3</v>
       </c>
       <c r="P22" s="3">
@@ -2039,11 +2067,11 @@
       <c r="Q22" s="3">
         <v>4</v>
       </c>
-      <c r="R22" s="6">
-        <v>3</v>
-      </c>
-      <c r="S22" s="4">
-        <v>2</v>
+      <c r="R22" s="5">
+        <v>3</v>
+      </c>
+      <c r="S22" s="5">
+        <v>3</v>
       </c>
       <c r="T22" s="2">
         <v>0</v>
